--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Jamming_test(Finished)/Random/Final/500nodes/500.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Jamming_test(Finished)/Random/Final/500nodes/500.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\Jamming_test(SWIB)\Random\Final\500nodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\Jamming_test(Finished)\Random\Final\500nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE0FA2C-F1B5-4365-8A3F-B65B1293168F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3AE06B-6DA6-4C3B-91B5-F8A273AEE9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7831,19 +7831,19 @@
         <v>76456.7</v>
       </c>
       <c r="C2" s="1">
-        <f>B2*50/1000000</f>
-        <v>3.822835</v>
+        <f>B2*2*50/1000000</f>
+        <v>7.64567</v>
       </c>
       <c r="D2" s="1">
         <f>E2/C2</f>
-        <v>535.46647971989375</v>
+        <v>267.73323985994688</v>
       </c>
       <c r="E2">
         <v>2047</v>
       </c>
       <c r="G2">
         <f>FLOOR(D2,1)</f>
-        <v>535</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -7854,19 +7854,19 @@
         <v>39805.800000000003</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C11" si="0">B3*50/1000000</f>
-        <v>1.9902900000000003</v>
+        <f t="shared" ref="C3:C11" si="0">B3*2*50/1000000</f>
+        <v>3.9805800000000007</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D11" si="1">E3/C3</f>
-        <v>1028.4933351421148</v>
+        <v>514.2466675710574</v>
       </c>
       <c r="E3">
         <v>2047</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G11" si="2">FLOOR(D3,1)</f>
-        <v>1028</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -7878,18 +7878,18 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>1.2905800000000001</v>
+        <v>2.5811600000000001</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>1586.1085713400175</v>
+        <v>793.05428567000877</v>
       </c>
       <c r="E4">
         <v>2047</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>1586</v>
+        <v>793</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -7901,18 +7901,18 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>1.1516200000000001</v>
+        <v>2.3032400000000002</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>1777.4960490439553</v>
+        <v>888.74802452197764</v>
       </c>
       <c r="E5">
         <v>2047</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>1777</v>
+        <v>888</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -7924,18 +7924,18 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.96017999999999992</v>
+        <v>1.9203599999999998</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>2131.8919369284927</v>
+        <v>1065.9459684642463</v>
       </c>
       <c r="E6">
         <v>2047</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>2131</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -7947,18 +7947,18 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0.707125</v>
+        <v>1.41425</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>2894.8205762771786</v>
+        <v>1447.4102881385893</v>
       </c>
       <c r="E7">
         <v>2047</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>2894</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -7970,18 +7970,18 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>0.78842500000000004</v>
+        <v>1.5768500000000001</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>2596.315439008149</v>
+        <v>1298.1577195040745</v>
       </c>
       <c r="E8">
         <v>2047</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>2596</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -7993,18 +7993,18 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>0.60711000000000004</v>
+        <v>1.2142200000000001</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>3371.7118808782589</v>
+        <v>1685.8559404391294</v>
       </c>
       <c r="E9">
         <v>2047</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>3371</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -8016,18 +8016,18 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0.55527499999999996</v>
+        <v>1.1105499999999999</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>3686.4616631398858</v>
+        <v>1843.2308315699429</v>
       </c>
       <c r="E10">
         <v>2047</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>3686</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -8039,18 +8039,18 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>0.51839999999999997</v>
+        <v>1.0367999999999999</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>3948.6882716049386</v>
+        <v>1974.3441358024693</v>
       </c>
       <c r="E11">
         <v>2047</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>3948</v>
+        <v>1974</v>
       </c>
     </row>
   </sheetData>
